--- a/biology/Zoologie/Chamaelimnas_briola/Chamaelimnas_briola.xlsx
+++ b/biology/Zoologie/Chamaelimnas_briola/Chamaelimnas_briola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamaelimnas briola est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Chamaelimnas.
 </t>
@@ -511,16 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaelimnas briola a été décrit par Henry Walter Bates en 1868[1].
-Sous-espèces
-Chamaelimnas briola briola; en Guyane, en Équateur et au Pérou
-Chamaelimnas briola doryphora Stichel, 1910;  au Brésil et en Argentine
-Chamaelimnas briola meridionalis Lathy, 1932; au Paraguay
-Chamaelimnas briola urbana Stichel, 1916;  au Pérou
-Nom vernaculaire
-Il se nomme Briola Metalmark en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaelimnas briola a été décrit par Henry Walter Bates en 1868.
 </t>
         </is>
       </c>
@@ -546,13 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chamaelimnas briola est un papillon d'une envergure d'environ 32 mm, de couleur jaune d'or largement bordé de noir avec en plus aux ailes antérieures une barre noire qui délimite deux plages jaunes[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chamaelimnas briola briola; en Guyane, en Équateur et au Pérou
+Chamaelimnas briola doryphora Stichel, 1910;  au Brésil et en Argentine
+Chamaelimnas briola meridionalis Lathy, 1932; au Paraguay
+Chamaelimnas briola urbana Stichel, 1916;  au Pérou</t>
         </is>
       </c>
     </row>
@@ -577,10 +592,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Briola Metalmark en anglais.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,14 +629,112 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaelimnas briola est un papillon d'une envergure d'environ 32 mm, de couleur jaune d'or largement bordé de noir avec en plus aux ailes antérieures une barre noire qui délimite deux plages jaunes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chamaelimnas_briola</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamaelimnas_briola</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chamaelimnas_briola</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamaelimnas_briola</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaelimnas briola est présent au Costa Rica, en Colombie, en Guyane, en Équateur, au Brésil, au Paraguay, en Argentine et au Pérou[1].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaelimnas briola est présent au Costa Rica, en Colombie, en Guyane, en Équateur, au Brésil, au Paraguay, en Argentine et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chamaelimnas_briola</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamaelimnas_briola</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
